--- a/medicine/Psychotrope/Languedoc_Montpeyroux/Languedoc_Montpeyroux.xlsx
+++ b/medicine/Psychotrope/Languedoc_Montpeyroux/Languedoc_Montpeyroux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le montpeyroux est un vin français d'appellation d'origine contrôlée produit autour des communes de Montpeyroux et d'Arboras, dans l'Hérault[1].
+Le montpeyroux est un vin français d'appellation d'origine contrôlée produit autour des communes de Montpeyroux et d'Arboras, dans l'Hérault.
 </t>
         </is>
       </c>
@@ -509,17 +521,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Histoire</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Antiquité
-Moyen Âge
-Période moderne
-Période contemporaine</t>
-        </is>
-      </c>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,47 +549,60 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Étymologie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Languedoc_Montpeyroux</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Languedoc_Montpeyroux</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Orographie
-Géologie
-L'AOC montpeyroux se caractérise par ses sols argilo-calcaire donnant à ses vins leur particularité. Issus de l'ère jurassique à l'ère quaternaire, ceux-ci témoignent de l'histoire géologique de la région. Ce terroir est constitué de plusieurs sols :
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'AOC montpeyroux se caractérise par ses sols argilo-calcaire donnant à ses vins leur particularité. Issus de l'ère jurassique à l'ère quaternaire, ceux-ci témoignent de l'histoire géologique de la région. Ce terroir est constitué de plusieurs sols :
 les sols du causse parsemés de pierres de lave ;
 les terrasses de Riss, aux petits cailloux filtrants ;
 les éboulis glaciaires aux sols “pauvres” et caillouteux ;
 les marnes bleues ;
 la terra rosa ou glaise rouge ;
-les sables.
-Climatologie
+les sables.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Languedoc_Montpeyroux</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Languedoc_Montpeyroux</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 ↑ « Fiche produit », sur www.inao.gouv.fr (consulté le 4 février 2018)
 </t>
         </is>
@@ -612,7 +632,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Site de l'AOC
  Portail de la vigne et du vin   Portail de l’Hérault                    </t>
